--- a/Funções.xlsx
+++ b/Funções.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Projects\Ranking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Projects\Ranking_9Dezembro2023 - Gráficos Ajustados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18C889D-AB74-490D-9C1E-A1AE64D5F957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876413A8-594F-4428-96E0-E156ED5D14AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0F020FA3-E0AC-4DAF-963C-C36C764E2334}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0F020FA3-E0AC-4DAF-963C-C36C764E2334}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -71,64 +71,64 @@
     <t>Goleiro-Líbero</t>
   </si>
   <si>
-    <t>Primeiro_Volante_Construtor</t>
-  </si>
-  <si>
-    <t>Primeiro_Volante_Defensivo</t>
-  </si>
-  <si>
-    <t>Primeiro_Volante_Equilibrado</t>
-  </si>
-  <si>
-    <t>Segundo_Volante_Box_to_Box</t>
-  </si>
-  <si>
-    <t>Segundo_Volante_Organizador</t>
-  </si>
-  <si>
-    <t>Segundo_Volante_Equilibrado</t>
-  </si>
-  <si>
-    <t>Meia_Organizador</t>
-  </si>
-  <si>
-    <t>Meia_Atacante</t>
-  </si>
-  <si>
-    <t>Extremo_Organizador</t>
-  </si>
-  <si>
-    <t>Extremo_Tático</t>
-  </si>
-  <si>
-    <t>Extremo_Agudo</t>
-  </si>
-  <si>
-    <t>Atacante_Referência</t>
-  </si>
-  <si>
-    <t>Atacante_Móvel</t>
-  </si>
-  <si>
-    <t>Segundo_Atacante</t>
-  </si>
-  <si>
-    <t>Lateral_Defensivo</t>
-  </si>
-  <si>
-    <t>Lateral_Ofensivo</t>
-  </si>
-  <si>
-    <t>Lateral_Equilibrado</t>
-  </si>
-  <si>
-    <t>Zagueiro_Defensivo</t>
-  </si>
-  <si>
-    <t>Zagueiro_Construtor</t>
-  </si>
-  <si>
-    <t>Zagueiro_Equilibrado</t>
+    <t>Lateral Defensivo</t>
+  </si>
+  <si>
+    <t>Lateral Ofensivo</t>
+  </si>
+  <si>
+    <t>Lateral Equilibrado</t>
+  </si>
+  <si>
+    <t>Zagueiro Defensivo</t>
+  </si>
+  <si>
+    <t>Zagueiro Construtor</t>
+  </si>
+  <si>
+    <t>Zagueiro Equilibrado</t>
+  </si>
+  <si>
+    <t>Primeiro Volante Defensivo</t>
+  </si>
+  <si>
+    <t>Primeiro Volante Construtor</t>
+  </si>
+  <si>
+    <t>Primeiro Volante Equilibrado</t>
+  </si>
+  <si>
+    <t>Segundo Volante Box to Box</t>
+  </si>
+  <si>
+    <t>Segundo Volante Organizador</t>
+  </si>
+  <si>
+    <t>Segundo Volante Equilibrado</t>
+  </si>
+  <si>
+    <t>Meia Organizador</t>
+  </si>
+  <si>
+    <t>Meia Atacante</t>
+  </si>
+  <si>
+    <t>Extremo Organizador</t>
+  </si>
+  <si>
+    <t>Extremo Tático</t>
+  </si>
+  <si>
+    <t>Extremo Agudo</t>
+  </si>
+  <si>
+    <t>Atacante Referência</t>
+  </si>
+  <si>
+    <t>Atacante Móvel</t>
+  </si>
+  <si>
+    <t>Segundo Atacante</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -544,7 +544,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -568,7 +568,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -576,15 +576,15 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -592,15 +592,15 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -616,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -624,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -688,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
